--- a/teaching/traditional_assets/database/data/israel/israel_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.010705</v>
+        <v>0.013</v>
       </c>
       <c r="E2">
-        <v>0.07925</v>
+        <v>0.0708</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.006929341432654975</v>
+        <v>-0.009576479694674596</v>
       </c>
       <c r="J2">
-        <v>-0.00437062743104764</v>
+        <v>-0.006064048255648862</v>
       </c>
       <c r="K2">
-        <v>3054</v>
+        <v>1825</v>
       </c>
       <c r="L2">
-        <v>0.2059644721401691</v>
+        <v>0.1448389708099871</v>
       </c>
       <c r="M2">
-        <v>1270.918</v>
+        <v>839.4300000000001</v>
       </c>
       <c r="N2">
-        <v>0.03327611531925924</v>
+        <v>0.02621138221536656</v>
       </c>
       <c r="O2">
-        <v>0.4161486574983628</v>
+        <v>0.4599616438356165</v>
       </c>
       <c r="P2">
-        <v>1061.418</v>
+        <v>707.03</v>
       </c>
       <c r="Q2">
-        <v>0.02779083132817184</v>
+        <v>0.02207716375127243</v>
       </c>
       <c r="R2">
-        <v>0.3475500982318271</v>
+        <v>0.387413698630137</v>
       </c>
       <c r="S2">
-        <v>209.5000000000001</v>
+        <v>132.4</v>
       </c>
       <c r="T2">
-        <v>0.1648414767907922</v>
+        <v>0.1577260760277808</v>
       </c>
       <c r="U2">
-        <v>79400.8</v>
+        <v>134568.6</v>
       </c>
       <c r="V2">
-        <v>2.078930487444067</v>
+        <v>4.201933465311909</v>
       </c>
       <c r="W2">
-        <v>0.1038104630618865</v>
+        <v>0.08033033033033034</v>
       </c>
       <c r="X2">
-        <v>0.06401689593975329</v>
+        <v>0.05973061924931371</v>
       </c>
       <c r="Y2">
-        <v>0.03979356712213319</v>
+        <v>0.02059971108101663</v>
       </c>
       <c r="Z2">
-        <v>-2.011646882872495</v>
+        <v>-9.035820129722952</v>
       </c>
       <c r="AA2">
-        <v>0.0004269701145629171</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.04407012234719159</v>
+        <v>0.03817823786333101</v>
       </c>
       <c r="AC2">
-        <v>-0.04359201802884531</v>
+        <v>-0.03841709948549001</v>
       </c>
       <c r="AD2">
-        <v>40812.4</v>
+        <v>39791.2</v>
       </c>
       <c r="AE2">
-        <v>1658.984444475607</v>
+        <v>1435.827797244194</v>
       </c>
       <c r="AF2">
-        <v>42471.3844444756</v>
+        <v>41227.02779724419</v>
       </c>
       <c r="AG2">
-        <v>-36929.4155555244</v>
+        <v>-93341.57220275581</v>
       </c>
       <c r="AH2">
-        <v>0.5265190094125036</v>
+        <v>0.5628076643596949</v>
       </c>
       <c r="AI2">
-        <v>0.5289775098269036</v>
+        <v>0.5109505210167671</v>
       </c>
       <c r="AJ2">
-        <v>-29.22360540004059</v>
+        <v>1.522299400786154</v>
       </c>
       <c r="AK2">
-        <v>-41.55047467928321</v>
+        <v>1.732343640923264</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>178.1811831477843</v>
+        <v>238.9861861861862</v>
       </c>
       <c r="AP2">
-        <v>-161.2286206309732</v>
+        <v>-560.6100432597947</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bank Leumi le- Israel B.M. (TASE:LUMI)</t>
+          <t>First International Bank of Israel Ltd (TASE:FIBI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0117</v>
+        <v>0.013</v>
       </c>
       <c r="E3">
-        <v>0.135</v>
+        <v>0.149</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,91 +731,91 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.004264042122650313</v>
+        <v>-0.004762926778355925</v>
       </c>
       <c r="J3">
-        <v>-0.002837633570839891</v>
+        <v>-0.003242341940290648</v>
       </c>
       <c r="K3">
-        <v>996.8</v>
+        <v>222.7</v>
       </c>
       <c r="L3">
-        <v>0.2602746879732623</v>
+        <v>0.206720504966119</v>
       </c>
       <c r="M3">
-        <v>627.7</v>
+        <v>68.7</v>
       </c>
       <c r="N3">
-        <v>0.05857760108998945</v>
+        <v>0.02585525572993113</v>
       </c>
       <c r="O3">
-        <v>0.6297150882825041</v>
+        <v>0.308486753480018</v>
       </c>
       <c r="P3">
-        <v>418.2</v>
+        <v>68.7</v>
       </c>
       <c r="Q3">
-        <v>0.03902684845600381</v>
+        <v>0.02585525572993113</v>
       </c>
       <c r="R3">
-        <v>0.4195425361155699</v>
+        <v>0.308486753480018</v>
       </c>
       <c r="S3">
-        <v>209.5000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.3337581647283735</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>16869.8</v>
+        <v>15192.7</v>
       </c>
       <c r="V3">
-        <v>1.574306858161389</v>
+        <v>5.717775017876633</v>
       </c>
       <c r="W3">
-        <v>0.1042078302231979</v>
+        <v>0.09157072368421053</v>
       </c>
       <c r="X3">
-        <v>0.06022313969831958</v>
+        <v>0.04944323687223476</v>
       </c>
       <c r="Y3">
-        <v>0.04398469052487837</v>
+        <v>0.04212748681197577</v>
       </c>
       <c r="Z3">
-        <v>-1.853074165667017</v>
+        <v>-0.1841209720653249</v>
       </c>
       <c r="AA3">
-        <v>0.00525834546175285</v>
+        <v>0.0005969831498144858</v>
       </c>
       <c r="AB3">
-        <v>0.04432285293037277</v>
+        <v>0.03698964490644516</v>
       </c>
       <c r="AC3">
-        <v>-0.03906450746861993</v>
+        <v>-0.03639266175663068</v>
       </c>
       <c r="AD3">
-        <v>9762</v>
+        <v>1768.7</v>
       </c>
       <c r="AE3">
-        <v>428.1521426066308</v>
+        <v>131.1555050916142</v>
       </c>
       <c r="AF3">
-        <v>10190.15214260663</v>
+        <v>1899.855505091614</v>
       </c>
       <c r="AG3">
-        <v>-6679.647857393369</v>
+        <v>-13292.84449490839</v>
       </c>
       <c r="AH3">
-        <v>0.4874306042679243</v>
+        <v>0.4169133323704505</v>
       </c>
       <c r="AI3">
-        <v>0.4989338970658105</v>
+        <v>0.4107302361846776</v>
       </c>
       <c r="AJ3">
-        <v>-1.654995431520715</v>
+        <v>1.24982736293374</v>
       </c>
       <c r="AK3">
-        <v>-1.87944565509226</v>
+        <v>1.257941017207945</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>140.8658008658009</v>
+        <v>83.82464454976304</v>
       </c>
       <c r="AP3">
-        <v>-96.38741496960129</v>
+        <v>-629.9926300904448</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>First International Bank of Israel Ltd (TASE:FIBI)</t>
+          <t>F.I.B.I. Holdings Ltd (TASE:FIBIH)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.00971</v>
+        <v>0.0129</v>
       </c>
       <c r="E4">
-        <v>0.08800000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,34 +859,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.004864338452018641</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.003143787168564799</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>232.3</v>
+        <v>106.4</v>
       </c>
       <c r="L4">
-        <v>0.2027050610820244</v>
+        <v>0.09876543209876544</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>31.6</v>
       </c>
       <c r="N4">
-        <v>0.03963467172152335</v>
+        <v>0.02941997951773578</v>
       </c>
       <c r="O4">
-        <v>0.495049504950495</v>
+        <v>0.2969924812030075</v>
       </c>
       <c r="P4">
-        <v>115</v>
+        <v>31.6</v>
       </c>
       <c r="Q4">
-        <v>0.03963467172152335</v>
+        <v>0.02941997951773578</v>
       </c>
       <c r="R4">
-        <v>0.495049504950495</v>
+        <v>0.2969924812030075</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,67 +895,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>9847.9</v>
+        <v>15195</v>
       </c>
       <c r="V4">
-        <v>3.394072031707737</v>
+        <v>14.14672749278466</v>
       </c>
       <c r="W4">
-        <v>0.1042639138240575</v>
+        <v>0.09039164047234731</v>
       </c>
       <c r="X4">
-        <v>0.05270576179987632</v>
+        <v>0.06801602511410608</v>
       </c>
       <c r="Y4">
-        <v>0.05155815202418114</v>
+        <v>0.02237561535824123</v>
       </c>
       <c r="Z4">
-        <v>-0.2716278753423613</v>
+        <v>-0.1487983425414365</v>
       </c>
       <c r="AA4">
-        <v>0.0008539402291258343</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.04344143142278142</v>
+        <v>0.03787587555202758</v>
       </c>
       <c r="AC4">
-        <v>-0.04258749119365558</v>
+        <v>-0.03787587555202758</v>
       </c>
       <c r="AD4">
-        <v>1433.7</v>
+        <v>1768.7</v>
       </c>
       <c r="AE4">
-        <v>129.3726593300668</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1563.072659330067</v>
+        <v>1768.7</v>
       </c>
       <c r="AG4">
-        <v>-8284.827340669934</v>
+        <v>-13426.3</v>
       </c>
       <c r="AH4">
-        <v>0.3501057723998638</v>
+        <v>0.622168284789644</v>
       </c>
       <c r="AI4">
-        <v>0.3816679919882453</v>
+        <v>0.3932541800071149</v>
       </c>
       <c r="AJ4">
-        <v>1.538978928158383</v>
+        <v>1.086956169751137</v>
       </c>
       <c r="AK4">
-        <v>1.440206512726472</v>
+        <v>1.255099369940359</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>70.6256157635468</v>
-      </c>
-      <c r="AP4">
-        <v>-408.1195734320164</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Union Bank of Israel Ltd. (TASE:UNON)</t>
+          <t>Bank Leumi le- Israel B.M. (TASE:LUMI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,10 +969,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0077</v>
+        <v>-0.0361</v>
       </c>
       <c r="E5">
-        <v>-0.125</v>
+        <v>-0.0371</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -987,100 +981,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.002319880998783351</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.001399534766479136</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>18.4</v>
+        <v>571</v>
       </c>
       <c r="L5">
-        <v>0.06178643384822027</v>
+        <v>0.1877363143185928</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>308.6</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.03580129469361239</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.5404553415061296</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>176.2</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.02044130954314485</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.3085814360770578</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>132.4</v>
+      </c>
+      <c r="T5">
+        <v>0.4290343486714194</v>
       </c>
       <c r="U5">
-        <v>2275.1</v>
+        <v>33036.8</v>
       </c>
       <c r="V5">
-        <v>4.6640016400164</v>
+        <v>3.832664330958956</v>
       </c>
       <c r="W5">
-        <v>0.02673252942031091</v>
+        <v>0.05652457977786138</v>
       </c>
       <c r="X5">
-        <v>0.1011844401239072</v>
+        <v>0.05655880939136944</v>
       </c>
       <c r="Y5">
-        <v>-0.07445191070359627</v>
+        <v>-3.422961350806053e-05</v>
       </c>
       <c r="Z5">
-        <v>-0.8674737330970415</v>
+        <v>1.017428246470864</v>
       </c>
       <c r="AA5">
-        <v>0.001214059648476753</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0440989620497617</v>
+        <v>0.03817823786333101</v>
       </c>
       <c r="AC5">
-        <v>-0.04288490240128495</v>
+        <v>-0.03817823786333101</v>
       </c>
       <c r="AD5">
-        <v>1525.4</v>
+        <v>9240</v>
       </c>
       <c r="AE5">
-        <v>34.20430280718841</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1559.604302807189</v>
+        <v>9240</v>
       </c>
       <c r="AG5">
-        <v>-715.4956971928113</v>
+        <v>-23796.8</v>
       </c>
       <c r="AH5">
-        <v>0.7617471061620906</v>
+        <v>0.5173630163831622</v>
       </c>
       <c r="AI5">
-        <v>0.6707963081720481</v>
+        <v>0.4569326172744266</v>
       </c>
       <c r="AJ5">
-        <v>3.142332973411149</v>
+        <v>1.567951505567635</v>
       </c>
       <c r="AK5">
-        <v>-14.33735483605926</v>
+        <v>1.856948888021849</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>248.0325203252033</v>
-      </c>
-      <c r="AP5">
-        <v>-116.3407637711888</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Israel Discount Bank Limited (TASE:DSCT)</t>
+          <t>Bank of Jerusalem Ltd. (TASE:JBNK)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1100,10 +1091,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0446</v>
+        <v>0.034</v>
       </c>
       <c r="E6">
-        <v>0.243</v>
+        <v>0.0519</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1112,34 +1103,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002617143193473106</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001724468894601594</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>488.9</v>
+        <v>21.4</v>
       </c>
       <c r="L6">
-        <v>0.1892833636610012</v>
+        <v>0.1394136807817589</v>
       </c>
       <c r="M6">
-        <v>67.5</v>
+        <v>4.53</v>
       </c>
       <c r="N6">
-        <v>0.01251088910718588</v>
+        <v>0.02658450704225352</v>
       </c>
       <c r="O6">
-        <v>0.1380650439762733</v>
+        <v>0.2116822429906542</v>
       </c>
       <c r="P6">
-        <v>67.5</v>
+        <v>4.53</v>
       </c>
       <c r="Q6">
-        <v>0.01251088910718588</v>
+        <v>0.02658450704225352</v>
       </c>
       <c r="R6">
-        <v>0.1380650439762733</v>
+        <v>0.2116822429906542</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1148,67 +1139,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>6149.5</v>
+        <v>822.1</v>
       </c>
       <c r="V6">
-        <v>1.139788334290957</v>
+        <v>4.824530516431925</v>
       </c>
       <c r="W6">
-        <v>0.1068283622855894</v>
+        <v>0.08033033033033034</v>
       </c>
       <c r="X6">
-        <v>0.05872658243614079</v>
+        <v>0.09421053552894694</v>
       </c>
       <c r="Y6">
-        <v>0.04810177984944863</v>
+        <v>-0.0138802051986166</v>
       </c>
       <c r="Z6">
-        <v>1.129086806718053</v>
+        <v>2.260677466863035</v>
       </c>
       <c r="AA6">
-        <v>0.001947075077490325</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04537898198410086</v>
+        <v>0.03841709948549001</v>
       </c>
       <c r="AC6">
-        <v>-0.04343190690661053</v>
+        <v>-0.03841709948549001</v>
       </c>
       <c r="AD6">
-        <v>4510.2</v>
+        <v>504.5</v>
       </c>
       <c r="AE6">
-        <v>177.7009042278916</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>4687.900904227891</v>
+        <v>504.5</v>
       </c>
       <c r="AG6">
-        <v>-1461.599095772109</v>
+        <v>-317.6</v>
       </c>
       <c r="AH6">
-        <v>0.464921898190311</v>
+        <v>0.7475181508371611</v>
       </c>
       <c r="AI6">
-        <v>0.4622492221317608</v>
+        <v>0.6367537548908242</v>
       </c>
       <c r="AJ6">
-        <v>-0.371558268245865</v>
+        <v>2.157608695652174</v>
       </c>
       <c r="AK6">
-        <v>-0.3661319550865187</v>
+        <v>10.65771812080537</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>106.6241134751773</v>
-      </c>
-      <c r="AP6">
-        <v>-34.55317011281581</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F.I.B.I. Holdings Ltd (TASE:FIBIH)</t>
+          <t>Bank Hapoalim B.M. (TASE:POLI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1228,10 +1213,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.00971</v>
+        <v>-0.0579</v>
       </c>
       <c r="E7">
-        <v>0.0902</v>
+        <v>-0.297</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1240,34 +1225,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-0.009504434685820186</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0.004752217342910093</v>
       </c>
       <c r="K7">
-        <v>111.5</v>
+        <v>149.6</v>
       </c>
       <c r="L7">
-        <v>0.09729493891797557</v>
+        <v>0.04999832893285652</v>
       </c>
       <c r="M7">
-        <v>54.6</v>
+        <v>292.2</v>
       </c>
       <c r="N7">
-        <v>0.04554554554554555</v>
+        <v>0.03197671237374014</v>
       </c>
       <c r="O7">
-        <v>0.4896860986547085</v>
+        <v>1.953208556149733</v>
       </c>
       <c r="P7">
-        <v>54.6</v>
+        <v>292.2</v>
       </c>
       <c r="Q7">
-        <v>0.04554554554554555</v>
+        <v>0.03197671237374014</v>
       </c>
       <c r="R7">
-        <v>0.4896860986547085</v>
+        <v>1.953208556149733</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1276,61 +1261,67 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>9850.799999999999</v>
+        <v>37152.5</v>
       </c>
       <c r="V7">
-        <v>8.217217217217216</v>
+        <v>4.065759091257291</v>
       </c>
       <c r="W7">
-        <v>0.103413095900575</v>
+        <v>0.01327088212334114</v>
       </c>
       <c r="X7">
-        <v>0.06469061426982096</v>
+        <v>0.05973061924931371</v>
       </c>
       <c r="Y7">
-        <v>0.03872248163075406</v>
+        <v>-0.04645973712597257</v>
       </c>
       <c r="Z7">
-        <v>-0.2084242688782191</v>
+        <v>0.8719024868693205</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>-0.004143470119426824</v>
       </c>
       <c r="AB7">
-        <v>0.0437521291510801</v>
+        <v>0.03837707113295379</v>
       </c>
       <c r="AC7">
-        <v>-0.0437521291510801</v>
+        <v>-0.04252054125238062</v>
       </c>
       <c r="AD7">
-        <v>1433.7</v>
+        <v>10894.1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>355.1910951172129</v>
       </c>
       <c r="AF7">
-        <v>1433.7</v>
+        <v>11249.29109511721</v>
       </c>
       <c r="AG7">
-        <v>-8417.099999999999</v>
+        <v>-25903.20890488279</v>
       </c>
       <c r="AH7">
-        <v>0.5446153846153846</v>
+        <v>0.551782295198648</v>
       </c>
       <c r="AI7">
-        <v>0.36126089804969</v>
+        <v>0.496776075481569</v>
       </c>
       <c r="AJ7">
-        <v>1.166077885374673</v>
+        <v>1.545048114045703</v>
       </c>
       <c r="AK7">
-        <v>1.430944204549318</v>
+        <v>1.785454339058111</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>255.7300469483568</v>
+      </c>
+      <c r="AP7">
+        <v>-608.0565470629762</v>
       </c>
     </row>
     <row r="8">
@@ -1341,7 +1332,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bank of Jerusalem Ltd. (TASE:JBNK)</t>
+          <t>Israel Discount Bank Limited (TASE:DSCT)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1350,10 +1341,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0287</v>
+        <v>0.0257</v>
       </c>
       <c r="E8">
-        <v>0.0265</v>
+        <v>0.0834</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,34 +1353,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-0.01001262110394765</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0.006592551447737535</v>
       </c>
       <c r="K8">
-        <v>19.2</v>
+        <v>302.7</v>
       </c>
       <c r="L8">
-        <v>0.1326883206634416</v>
+        <v>0.1272490331259458</v>
       </c>
       <c r="M8">
-        <v>6.35</v>
+        <v>33</v>
       </c>
       <c r="N8">
-        <v>0.03620296465222349</v>
+        <v>0.007373807342524523</v>
       </c>
       <c r="O8">
-        <v>0.3307291666666667</v>
+        <v>0.1090188305252725</v>
       </c>
       <c r="P8">
-        <v>6.35</v>
+        <v>33</v>
       </c>
       <c r="Q8">
-        <v>0.03620296465222349</v>
+        <v>0.007373807342524523</v>
       </c>
       <c r="R8">
-        <v>0.3307291666666667</v>
+        <v>0.1090188305252725</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1398,61 +1389,67 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>662.4</v>
+        <v>10896.8</v>
       </c>
       <c r="V8">
-        <v>3.776510832383124</v>
+        <v>2.434875874243067</v>
       </c>
       <c r="W8">
-        <v>0.07875307629204265</v>
+        <v>0.05705615139577403</v>
       </c>
       <c r="X8">
-        <v>0.09111110338028124</v>
+        <v>0.05866571128541639</v>
       </c>
       <c r="Y8">
-        <v>-0.01235802708823859</v>
+        <v>-0.001609559889642363</v>
       </c>
       <c r="Z8">
-        <v>0.8904615384615384</v>
+        <v>0.6019093518956878</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-0.003968118369246679</v>
       </c>
       <c r="AB8">
-        <v>0.04404128264462148</v>
+        <v>0.03964816701329115</v>
       </c>
       <c r="AC8">
-        <v>-0.04404128264462148</v>
+        <v>-0.04361628538253783</v>
       </c>
       <c r="AD8">
-        <v>463.9</v>
+        <v>4938.2</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>332.0901154103533</v>
       </c>
       <c r="AF8">
-        <v>463.9</v>
+        <v>5270.290115410353</v>
       </c>
       <c r="AG8">
-        <v>-198.5</v>
+        <v>-5626.509884589646</v>
       </c>
       <c r="AH8">
-        <v>0.7256374159236665</v>
+        <v>0.5407871717359252</v>
       </c>
       <c r="AI8">
-        <v>0.6352184033958648</v>
+        <v>0.477970583323064</v>
       </c>
       <c r="AJ8">
-        <v>8.593073593073596</v>
+        <v>4.887475307419932</v>
       </c>
       <c r="AK8">
-        <v>-2.923416789396172</v>
+        <v>-43.41773959204377</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>115.9201877934272</v>
+      </c>
+      <c r="AP8">
+        <v>-132.0776968213532</v>
       </c>
     </row>
     <row r="9">
@@ -1472,10 +1469,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0732</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
-        <v>0.07049999999999999</v>
+        <v>0.0708</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1484,34 +1481,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.02891164717204201</v>
+        <v>-0.03366399761930242</v>
       </c>
       <c r="J9">
-        <v>-0.01780904491154795</v>
+        <v>-0.02199491960180667</v>
       </c>
       <c r="K9">
-        <v>461.1</v>
+        <v>451.2</v>
       </c>
       <c r="L9">
-        <v>0.2311509925807099</v>
+        <v>0.2400383039846784</v>
       </c>
       <c r="M9">
-        <v>112.7</v>
+        <v>100.8</v>
       </c>
       <c r="N9">
-        <v>0.01804903829214779</v>
+        <v>0.01711142798940721</v>
       </c>
       <c r="O9">
-        <v>0.2444155280850141</v>
+        <v>0.2234042553191489</v>
       </c>
       <c r="P9">
-        <v>112.7</v>
+        <v>100.8</v>
       </c>
       <c r="Q9">
-        <v>0.01804903829214779</v>
+        <v>0.01711142798940721</v>
       </c>
       <c r="R9">
-        <v>0.2444155280850141</v>
+        <v>0.2234042553191489</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1520,55 +1517,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>13455</v>
+        <v>22272.7</v>
       </c>
       <c r="V9">
-        <v>2.154834163450297</v>
+        <v>3.780929585115774</v>
       </c>
       <c r="W9">
-        <v>0.1160262700988903</v>
+        <v>0.09963344079848076</v>
       </c>
       <c r="X9">
-        <v>0.07251512978825306</v>
+        <v>0.07341066587972275</v>
       </c>
       <c r="Y9">
-        <v>0.04351114031063727</v>
+        <v>0.026222774918758</v>
       </c>
       <c r="Z9">
-        <v>1.018708962436673</v>
+        <v>1.497183076415849</v>
       </c>
       <c r="AA9">
-        <v>-0.01814223366383112</v>
+        <v>-0.03293042139495216</v>
       </c>
       <c r="AB9">
-        <v>0.04387103014776494</v>
+        <v>0.03802720344594548</v>
       </c>
       <c r="AC9">
-        <v>-0.06201326381159607</v>
+        <v>-0.07095762484089764</v>
       </c>
       <c r="AD9">
-        <v>9589.5</v>
+        <v>10677</v>
       </c>
       <c r="AE9">
-        <v>557.364768893947</v>
+        <v>617.3910816250138</v>
       </c>
       <c r="AF9">
-        <v>10146.86476889395</v>
+        <v>11294.39108162501</v>
       </c>
       <c r="AG9">
-        <v>-3308.135231106053</v>
+        <v>-10978.30891837499</v>
       </c>
       <c r="AH9">
-        <v>0.6190523201020004</v>
+        <v>0.6572164969234098</v>
       </c>
       <c r="AI9">
-        <v>0.6812873074789562</v>
+        <v>0.6691508853977813</v>
       </c>
       <c r="AJ9">
-        <v>-1.126762577724089</v>
+        <v>2.157894776110111</v>
       </c>
       <c r="AK9">
-        <v>-2.299448281929753</v>
+        <v>2.035278228958202</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1577,138 +1574,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>178.2434944237918</v>
+        <v>177.358803986711</v>
       </c>
       <c r="AP9">
-        <v>-61.48950243691548</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bank Hapoalim B.M. (TASE:POLI)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>-0.016</v>
-      </c>
-      <c r="E10">
-        <v>-0.0236</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-0.00793258812794414</v>
-      </c>
-      <c r="J10">
-        <v>-0.004298711213529334</v>
-      </c>
-      <c r="K10">
-        <v>725.8</v>
-      </c>
-      <c r="L10">
-        <v>0.1969179011340821</v>
-      </c>
-      <c r="M10">
-        <v>287.068</v>
-      </c>
-      <c r="N10">
-        <v>0.02592153144611495</v>
-      </c>
-      <c r="O10">
-        <v>0.3955194268393497</v>
-      </c>
-      <c r="P10">
-        <v>287.068</v>
-      </c>
-      <c r="Q10">
-        <v>0.02592153144611495</v>
-      </c>
-      <c r="R10">
-        <v>0.3955194268393497</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>20290.3</v>
-      </c>
-      <c r="V10">
-        <v>1.832163980315138</v>
-      </c>
-      <c r="W10">
-        <v>0.07011950651634158</v>
-      </c>
-      <c r="X10">
-        <v>0.06334317760968564</v>
-      </c>
-      <c r="Y10">
-        <v>0.006776328906655943</v>
-      </c>
-      <c r="Z10">
-        <v>10.58560995185888</v>
-      </c>
-      <c r="AA10">
-        <v>-0.0455044802021035</v>
-      </c>
-      <c r="AB10">
-        <v>0.04444500246261445</v>
-      </c>
-      <c r="AC10">
-        <v>-0.08994948266471794</v>
-      </c>
-      <c r="AD10">
-        <v>12094</v>
-      </c>
-      <c r="AE10">
-        <v>332.1896666098826</v>
-      </c>
-      <c r="AF10">
-        <v>12426.18966660988</v>
-      </c>
-      <c r="AG10">
-        <v>-7864.110333390117</v>
-      </c>
-      <c r="AH10">
-        <v>0.52875851061789</v>
-      </c>
-      <c r="AI10">
-        <v>0.5240621594745384</v>
-      </c>
-      <c r="AJ10">
-        <v>-2.44958125027062</v>
-      </c>
-      <c r="AK10">
-        <v>-2.298782253026581</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>325.1075268817204</v>
-      </c>
-      <c r="AP10">
-        <v>-211.4008154137128</v>
+        <v>-182.3639355211792</v>
       </c>
     </row>
   </sheetData>
